--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level/act17d0_03.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level/act17d0_03.xlsx
@@ -110,7 +110,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ash")] This fella… feels like he could blow us sky high.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ash")] This fella... feels like he could blow us sky high.
 </t>
   </si>
   <si>
@@ -165,7 +165,7 @@
 </t>
   </si>
   <si>
-    <t>[PopupDialog(dialogHead="$avatar_rfrost")] 알겠습니다.</t>
+    <t>[PopupDialog(dialogHead="$avatar_rfrost")] 알았어.</t>
   </si>
 </sst>
 </file>
